--- a/data/trans_orig/P02F-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>450462</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>445750</v>
+        <v>445873</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>452368</v>
+        <v>452365</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9941660459372194</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9837665584297247</v>
+        <v>0.984039312287505</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9983724043061575</v>
+        <v>0.9983674074944765</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>418</v>
@@ -763,7 +763,7 @@
         <v>427235</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>423324</v>
+        <v>422331</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>429172</v>
@@ -772,7 +772,7 @@
         <v>0.9954861356860708</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9863746186147881</v>
+        <v>0.9840605342179353</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>877696</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>871747</v>
+        <v>872168</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>880584</v>
@@ -793,10 +793,10 @@
         <v>0.9948081855365007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9880653129973277</v>
+        <v>0.9885420271402166</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.998081349951695</v>
+        <v>0.9980813458699416</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>2643</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7355</v>
+        <v>7232</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005833954062780638</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001627595693842579</v>
+        <v>0.001632592505523528</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01623344157027549</v>
+        <v>0.0159606877124951</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5848</v>
+        <v>6841</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0045138643139292</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01362538138521198</v>
+        <v>0.0159394657820648</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -858,16 +858,16 @@
         <v>1693</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10530</v>
+        <v>10109</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005191814463499283</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001918650048304995</v>
+        <v>0.00191865413005844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01193468700267257</v>
+        <v>0.01145797285978336</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>669494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>659508</v>
+        <v>659823</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>675659</v>
+        <v>676265</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9800799958718625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9654622955943791</v>
+        <v>0.9659224464905578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9891055026261562</v>
+        <v>0.9899922854843078</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>560</v>
@@ -980,19 +980,19 @@
         <v>599356</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>591630</v>
+        <v>591208</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>604392</v>
+        <v>604246</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9836862398668228</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9710054150517824</v>
+        <v>0.9703140953588378</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9919509030911032</v>
+        <v>0.9917125091014235</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1211</v>
@@ -1001,19 +1001,19 @@
         <v>1268850</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1256220</v>
+        <v>1256685</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1277953</v>
+        <v>1277607</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9817801456876176</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9720076941076734</v>
+        <v>0.9723673877610165</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9888238203414811</v>
+        <v>0.9885561616513865</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>13607</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7442</v>
+        <v>6836</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23593</v>
+        <v>23278</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01992000412813755</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0108944973738438</v>
+        <v>0.01000771451569207</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03453770440562089</v>
+        <v>0.03407755350944209</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1051,19 +1051,19 @@
         <v>9940</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4904</v>
+        <v>5050</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17666</v>
+        <v>18088</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01631376013317715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00804909690889683</v>
+        <v>0.008287490898576491</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02899458494821779</v>
+        <v>0.02968590464116208</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -1072,19 +1072,19 @@
         <v>23547</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14444</v>
+        <v>14790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36177</v>
+        <v>35712</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01821985431238242</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01117617965851884</v>
+        <v>0.01144383834861356</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02799230589232652</v>
+        <v>0.02763261223898346</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>669079</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>661430</v>
+        <v>661452</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>673330</v>
+        <v>673777</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9869566420785806</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9756740411771601</v>
+        <v>0.9757065171673882</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9932276162987334</v>
+        <v>0.9938870134711734</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>633</v>
@@ -1197,19 +1197,19 @@
         <v>673321</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>659837</v>
+        <v>660264</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>684123</v>
+        <v>684546</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9497606088609329</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9307403598417052</v>
+        <v>0.9313422186881085</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9649966882918345</v>
+        <v>0.9655941945172285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1271</v>
@@ -1218,19 +1218,19 @@
         <v>1342400</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1326326</v>
+        <v>1325984</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1354784</v>
+        <v>1353166</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9679426868799329</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9563521376079791</v>
+        <v>0.9561061855290871</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9768718651914038</v>
+        <v>0.9757057539794088</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>8842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4591</v>
+        <v>4144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16491</v>
+        <v>16469</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01304335792141942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00677238370126668</v>
+        <v>0.006112986528826647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02432595882284007</v>
+        <v>0.02429348283261187</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -1268,19 +1268,19 @@
         <v>35617</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24815</v>
+        <v>24392</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49101</v>
+        <v>48674</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05023939113906704</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03500331170816558</v>
+        <v>0.03440580548277152</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06925964015829482</v>
+        <v>0.06865778131189146</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -1289,19 +1289,19 @@
         <v>44459</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32075</v>
+        <v>33693</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>60533</v>
+        <v>60875</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03205731312006712</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02312813480859622</v>
+        <v>0.02429424602059119</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0436478623920208</v>
+        <v>0.04389381447091283</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>607006</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>598543</v>
+        <v>598368</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>610702</v>
+        <v>610638</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.989439129764887</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9756437991944266</v>
+        <v>0.9753587839409271</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9954637975425572</v>
+        <v>0.9953592902289369</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>494</v>
@@ -1414,19 +1414,19 @@
         <v>565768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>550361</v>
+        <v>550583</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>577111</v>
+        <v>577925</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9261610714682224</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9009405425900068</v>
+        <v>0.9013043093755779</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9447297781553502</v>
+        <v>0.9460623520745718</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1035</v>
@@ -1435,19 +1435,19 @@
         <v>1172774</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1158521</v>
+        <v>1157460</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1186396</v>
+        <v>1185353</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9578675703837528</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9462269609057881</v>
+        <v>0.9453600155912355</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9689932453071526</v>
+        <v>0.9681420171283329</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>6479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2783</v>
+        <v>2847</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14942</v>
+        <v>15117</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01056087023511294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004536202457442762</v>
+        <v>0.004640709771063116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02435620080557352</v>
+        <v>0.0246412160590729</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -1485,19 +1485,19 @@
         <v>45106</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33763</v>
+        <v>32949</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60513</v>
+        <v>60291</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07383892853177759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05527022184464976</v>
+        <v>0.05393764792542823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09905945740999322</v>
+        <v>0.09869569062442213</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -1506,19 +1506,19 @@
         <v>51585</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37963</v>
+        <v>39006</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>65838</v>
+        <v>66899</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04213242961624721</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03100675469284698</v>
+        <v>0.03185798287166711</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05377303909421195</v>
+        <v>0.05463998440876479</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>422305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>415154</v>
+        <v>414844</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>426314</v>
+        <v>425443</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9858004998985918</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9691070415612769</v>
+        <v>0.9683838205590244</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9951590242827448</v>
+        <v>0.9931260942369308</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>385</v>
@@ -1631,19 +1631,19 @@
         <v>424985</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>415485</v>
+        <v>413927</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>433897</v>
+        <v>433219</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9514037323749318</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9301346529140021</v>
+        <v>0.9266477582616636</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9713539004112526</v>
+        <v>0.9698365570889123</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>771</v>
@@ -1652,19 +1652,19 @@
         <v>847290</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>835166</v>
+        <v>835252</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>856330</v>
+        <v>856527</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9682423624011952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9543871251365299</v>
+        <v>0.954485697708915</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9785720894910104</v>
+        <v>0.9787979304931154</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>6083</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2074</v>
+        <v>2945</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13234</v>
+        <v>13544</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01419950010140827</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004840975717255134</v>
+        <v>0.00687390576306924</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03089295843872354</v>
+        <v>0.03161617944097683</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -1702,19 +1702,19 @@
         <v>21708</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12796</v>
+        <v>13474</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31208</v>
+        <v>32766</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04859626762506818</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02864609958874735</v>
+        <v>0.03016344291108776</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06986534708599793</v>
+        <v>0.0733522417383364</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -1723,19 +1723,19 @@
         <v>27791</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18751</v>
+        <v>18554</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39915</v>
+        <v>39829</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03175763759880477</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02142791050898949</v>
+        <v>0.02120206950688475</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0456128748634699</v>
+        <v>0.04551430229108504</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>301702</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>291149</v>
+        <v>292479</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>305936</v>
+        <v>306142</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.976770590030162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9426065074941773</v>
+        <v>0.9469092978327405</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.990478337533295</v>
+        <v>0.9911439266815533</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>333</v>
@@ -1848,19 +1848,19 @@
         <v>343313</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>336324</v>
+        <v>336248</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>348069</v>
+        <v>348036</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9752891325616084</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9554357344917189</v>
+        <v>0.9552187685617842</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9888011523475626</v>
+        <v>0.9887085609207547</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>608</v>
@@ -1869,19 +1869,19 @@
         <v>645014</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>635203</v>
+        <v>635699</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>652207</v>
+        <v>651867</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9759815164464899</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9611351910469256</v>
+        <v>0.9618859600640749</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9868640534674208</v>
+        <v>0.9863508413808858</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>7175</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2941</v>
+        <v>2735</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17728</v>
+        <v>16398</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02322940996983807</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009521662466705034</v>
+        <v>0.008856073318446855</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05739349250582168</v>
+        <v>0.05309070216726146</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1919,19 +1919,19 @@
         <v>8698</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3942</v>
+        <v>3975</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15687</v>
+        <v>15763</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02471086743839158</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01119884765243746</v>
+        <v>0.01129143907924539</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04456426550828117</v>
+        <v>0.04478123143821568</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1940,19 +1940,19 @@
         <v>15874</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8681</v>
+        <v>9021</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25685</v>
+        <v>25189</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02401848355351013</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01313594653257925</v>
+        <v>0.01364915861911413</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03886480895307454</v>
+        <v>0.03811403993592492</v>
       </c>
     </row>
     <row r="21">
@@ -2044,7 +2044,7 @@
         <v>246814</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>241657</v>
+        <v>243621</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>247841</v>
@@ -2053,7 +2053,7 @@
         <v>0.9958554315716021</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9750474765546434</v>
+        <v>0.982972234257116</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>386763</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>382106</v>
+        <v>381884</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>388979</v>
@@ -2074,7 +2074,7 @@
         <v>0.9943031734390294</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9823306478776233</v>
+        <v>0.9817601740126757</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -2086,19 +2086,19 @@
         <v>633577</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>627362</v>
+        <v>628232</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>635799</v>
+        <v>635798</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9949072894313121</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9851488090674888</v>
+        <v>0.9865137958325262</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9983961709477315</v>
+        <v>0.9983947585604129</v>
       </c>
     </row>
     <row r="23">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6184</v>
+        <v>4220</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004144568428397929</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0249525234453566</v>
+        <v>0.01702776574288399</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6873</v>
+        <v>7095</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005696826560970644</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01766935212236937</v>
+        <v>0.01823982598732161</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2157,19 +2157,19 @@
         <v>3243</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9458</v>
+        <v>8588</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00509271056868791</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001603829052268465</v>
+        <v>0.001605241439587064</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01485119093251289</v>
+        <v>0.01348620416747394</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>3366862</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3350326</v>
+        <v>3350188</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3379199</v>
+        <v>3378725</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9865628540672277</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9817176140333566</v>
+        <v>0.9816771759586149</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9901780654445506</v>
+        <v>0.9900389981546076</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3171</v>
@@ -2282,19 +2282,19 @@
         <v>3420740</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3397370</v>
+        <v>3397443</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3441978</v>
+        <v>3439955</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9646860095421633</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9580953216572092</v>
+        <v>0.9581159101152427</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.970675415563794</v>
+        <v>0.970104925892195</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6323</v>
@@ -2303,19 +2303,19 @@
         <v>6787602</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6758135</v>
+        <v>6757315</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6812380</v>
+        <v>6811616</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9754149859971541</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9711804396324873</v>
+        <v>0.9710626161845307</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9789757238918145</v>
+        <v>0.9788660097509143</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>45857</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33520</v>
+        <v>33994</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>62393</v>
+        <v>62531</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01343714593277233</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009821934555449458</v>
+        <v>0.009961001845392527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01828238596664388</v>
+        <v>0.01832282404138512</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>117</v>
@@ -2353,19 +2353,19 @@
         <v>125222</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>103984</v>
+        <v>106007</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>148592</v>
+        <v>148519</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03531399045783663</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02932458443620587</v>
+        <v>0.02989507410780497</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0419046783427907</v>
+        <v>0.04188408988475732</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>160</v>
@@ -2374,19 +2374,19 @@
         <v>171079</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>146301</v>
+        <v>147065</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>200546</v>
+        <v>201366</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02458501400284589</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02102427610818546</v>
+        <v>0.02113399024908574</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02881956036751269</v>
+        <v>0.02893738381546927</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>408846</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>401187</v>
+        <v>401547</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>412911</v>
+        <v>413066</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9826811681328536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9642717675740574</v>
+        <v>0.9651363067339565</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.992450966823348</v>
+        <v>0.9928228758443897</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>389</v>
@@ -2742,19 +2742,19 @@
         <v>381417</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>374566</v>
+        <v>374580</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>385234</v>
+        <v>385276</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9807060138646054</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9630898511752004</v>
+        <v>0.9631254267102568</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9905196665993783</v>
+        <v>0.9906289802116984</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>772</v>
@@ -2763,19 +2763,19 @@
         <v>790264</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>781125</v>
+        <v>781875</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>796734</v>
+        <v>796893</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9817268759002257</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9703746977569866</v>
+        <v>0.9713064562914905</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9897646448901488</v>
+        <v>0.9899617793673526</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>7206</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3141</v>
+        <v>2986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14865</v>
+        <v>14505</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01731883186714647</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007549033176651944</v>
+        <v>0.007177124155610315</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03572823242594261</v>
+        <v>0.03486369326604349</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -2813,19 +2813,19 @@
         <v>7504</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3687</v>
+        <v>3645</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14355</v>
+        <v>14341</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01929398613539455</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009480333400621705</v>
+        <v>0.009371019788301745</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03691014882479961</v>
+        <v>0.03687457328974558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -2834,19 +2834,19 @@
         <v>14709</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8239</v>
+        <v>8080</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23848</v>
+        <v>23098</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01827312409977429</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01023535510985116</v>
+        <v>0.01003822063264763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02962530224301318</v>
+        <v>0.02869354370850992</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>580897</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>573332</v>
+        <v>571424</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>585693</v>
+        <v>585705</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9837437687077356</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9709335525633285</v>
+        <v>0.9677021553820775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9918657713208873</v>
+        <v>0.9918860523989239</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>563</v>
@@ -2959,19 +2959,19 @@
         <v>547909</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>538537</v>
+        <v>539080</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>553782</v>
+        <v>553921</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9753916559581622</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9587076438783799</v>
+        <v>0.9596746877862091</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9858468907438483</v>
+        <v>0.9860943357833093</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1121</v>
@@ -2980,19 +2980,19 @@
         <v>1128805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1117727</v>
+        <v>1117815</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1137546</v>
+        <v>1137261</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9796719649053871</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9700569116720984</v>
+        <v>0.9701334665771204</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9872576522285914</v>
+        <v>0.987010583180278</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>9599</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4803</v>
+        <v>4791</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17164</v>
+        <v>19072</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01625623129226437</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008134228679112766</v>
+        <v>0.0081139476010761</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02906644743667158</v>
+        <v>0.03229784461792262</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -3030,19 +3030,19 @@
         <v>13823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7950</v>
+        <v>7811</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23195</v>
+        <v>22652</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0246083440418378</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01415310925615196</v>
+        <v>0.01390566421669071</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04129235612162064</v>
+        <v>0.04032531221379004</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -3051,19 +3051,19 @@
         <v>23423</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14682</v>
+        <v>14967</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34501</v>
+        <v>34413</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02032803509461289</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01274234777140885</v>
+        <v>0.01298941681972219</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02994308832790228</v>
+        <v>0.02986653342287997</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>658800</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>650762</v>
+        <v>651616</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>662490</v>
+        <v>662561</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9902812404452781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.978198486003847</v>
+        <v>0.9794822997046487</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9958272407732321</v>
+        <v>0.9959340336117921</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>636</v>
@@ -3176,19 +3176,19 @@
         <v>633572</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>623439</v>
+        <v>622692</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>641734</v>
+        <v>641089</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.962874225457768</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9474746513047283</v>
+        <v>0.9463396260818936</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9752785288072064</v>
+        <v>0.9742977448657866</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1264</v>
@@ -3197,19 +3197,19 @@
         <v>1292373</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1280355</v>
+        <v>1280557</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1301431</v>
+        <v>1302472</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9766529630261996</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9675709416997306</v>
+        <v>0.9677239300756942</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9834982591306385</v>
+        <v>0.98428486921273</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>6466</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2776</v>
+        <v>2705</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14504</v>
+        <v>13650</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009718759554721897</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004172759226767814</v>
+        <v>0.004065966388207632</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02180151399615268</v>
+        <v>0.02051770029535116</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -3247,19 +3247,19 @@
         <v>24429</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16267</v>
+        <v>16912</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34562</v>
+        <v>35309</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03712577454223195</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02472147119279358</v>
+        <v>0.02570225513421324</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05252534869527108</v>
+        <v>0.05366037391810632</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -3268,19 +3268,19 @@
         <v>30894</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21836</v>
+        <v>20795</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42912</v>
+        <v>42710</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02334703697380041</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01650174086936125</v>
+        <v>0.01571513078727007</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03242905830026932</v>
+        <v>0.03227606992430573</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>630419</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>620406</v>
+        <v>620553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>637269</v>
+        <v>637203</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9772035820840098</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9616816282558578</v>
+        <v>0.961910519059211</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9878202929545038</v>
+        <v>0.9877191154900209</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>554</v>
@@ -3393,19 +3393,19 @@
         <v>597563</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>583742</v>
+        <v>582754</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>610721</v>
+        <v>609772</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9231881753160965</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9018355379795805</v>
+        <v>0.9003097855545523</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9435167221721096</v>
+        <v>0.9420496128292744</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1122</v>
@@ -3414,19 +3414,19 @@
         <v>1227983</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1211820</v>
+        <v>1209726</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1243969</v>
+        <v>1243499</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9501508195052283</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9376454435576962</v>
+        <v>0.9360251404232225</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9625205683549343</v>
+        <v>0.9621566340277748</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>14707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7857</v>
+        <v>7923</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24720</v>
+        <v>24573</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02279641791599022</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01217970704549623</v>
+        <v>0.01228088450997912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0383183717441422</v>
+        <v>0.03808948094078823</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -3464,19 +3464,19 @@
         <v>49719</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36561</v>
+        <v>37510</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63540</v>
+        <v>64528</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07681182468390345</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05648327782789084</v>
+        <v>0.05795038717072556</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09816446202041952</v>
+        <v>0.09969021444544766</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -3485,19 +3485,19 @@
         <v>64425</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48439</v>
+        <v>48909</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>80588</v>
+        <v>82682</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0498491804947717</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03747943164506563</v>
+        <v>0.03784336597222519</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0623545564423038</v>
+        <v>0.0639748595767774</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>457489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>446352</v>
+        <v>448117</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>464761</v>
+        <v>464933</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9639652716981675</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9404976188319482</v>
+        <v>0.944216462468236</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9792877978749399</v>
+        <v>0.9796508215030939</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>400</v>
@@ -3610,19 +3610,19 @@
         <v>457510</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>443372</v>
+        <v>443862</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>468882</v>
+        <v>469276</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9272869551839006</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8986310785630856</v>
+        <v>0.8996242068314627</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9503342223367685</v>
+        <v>0.9511334318008513</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>805</v>
@@ -3631,19 +3631,19 @@
         <v>914999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>899324</v>
+        <v>898520</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>927721</v>
+        <v>928608</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9452700272633261</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9290767935823973</v>
+        <v>0.9282464920034535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9584129146942061</v>
+        <v>0.9593296289141263</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>17102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9830</v>
+        <v>9658</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28239</v>
+        <v>26474</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03603472830183256</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02071220212506003</v>
+        <v>0.0203491784969061</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05950238116805171</v>
+        <v>0.055783537531764</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -3681,19 +3681,19 @@
         <v>35876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24504</v>
+        <v>24110</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50014</v>
+        <v>49524</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07271304481609943</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04966577766323144</v>
+        <v>0.04886656819914868</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1013689214369141</v>
+        <v>0.1003757931685371</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>46</v>
@@ -3702,19 +3702,19 @@
         <v>52977</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40255</v>
+        <v>39368</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68652</v>
+        <v>69456</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05472997273667396</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04158708530579387</v>
+        <v>0.0406703710858735</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07092320641760273</v>
+        <v>0.07175350799654641</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>327481</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>320686</v>
+        <v>321346</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>331221</v>
+        <v>330529</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.982599580724383</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9622133790990414</v>
+        <v>0.9641914462458655</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9938230022668115</v>
+        <v>0.9917470744359134</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>341</v>
@@ -3827,19 +3827,19 @@
         <v>363162</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>353544</v>
+        <v>352550</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>369569</v>
+        <v>369454</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9641164342222321</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9385828973833092</v>
+        <v>0.9359434654286897</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9811258215443552</v>
+        <v>0.9808194417781164</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>659</v>
@@ -3848,19 +3848,19 @@
         <v>690643</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>680547</v>
+        <v>678990</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>698867</v>
+        <v>697649</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9727930722305643</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9585720674007018</v>
+        <v>0.9563791249643185</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9843766168240763</v>
+        <v>0.9826611493024356</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>5799</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2059</v>
+        <v>2751</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12594</v>
+        <v>11934</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01740041927561703</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006176997733188085</v>
+        <v>0.008252925564086662</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03778662090095779</v>
+        <v>0.03580855375413448</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -3898,19 +3898,19 @@
         <v>13517</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7110</v>
+        <v>7225</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23135</v>
+        <v>24129</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03588356577776788</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0188741784556446</v>
+        <v>0.01918055822188408</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06141710261669075</v>
+        <v>0.0640565345713108</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -3919,19 +3919,19 @@
         <v>19316</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11092</v>
+        <v>12310</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29412</v>
+        <v>30969</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02720692776943569</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01562338317592375</v>
+        <v>0.0173388506975644</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04142793259929838</v>
+        <v>0.04362087503568179</v>
       </c>
     </row>
     <row r="21">
@@ -4023,7 +4023,7 @@
         <v>252548</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>248597</v>
+        <v>248585</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>254115</v>
@@ -4032,7 +4032,7 @@
         <v>0.9938348517843495</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9782855986554932</v>
+        <v>0.9782386355633579</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -4044,19 +4044,19 @@
         <v>387916</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>377614</v>
+        <v>377250</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>393629</v>
+        <v>393627</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9790826876828566</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9530785002203588</v>
+        <v>0.9521609201720787</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9935010384524788</v>
+        <v>0.9934968760367868</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>590</v>
@@ -4065,19 +4065,19 @@
         <v>640465</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>630165</v>
+        <v>628630</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>646498</v>
+        <v>646073</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9848471672329902</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9690088026284509</v>
+        <v>0.9666482135213506</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9941250878947843</v>
+        <v>0.9934711989165261</v>
       </c>
     </row>
     <row r="23">
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5518</v>
+        <v>5530</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006165148215650488</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02171440134450676</v>
+        <v>0.02176136443664221</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -4115,19 +4115,19 @@
         <v>8288</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18590</v>
+        <v>18954</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02091731231714348</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006498961547521147</v>
+        <v>0.006503123963213191</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04692149977964137</v>
+        <v>0.04783907982792012</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -4136,19 +4136,19 @@
         <v>9854</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3821</v>
+        <v>4246</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20154</v>
+        <v>21689</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01515283276700985</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005874912105215732</v>
+        <v>0.006528801083473901</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03099119737154905</v>
+        <v>0.03335178647864966</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>3316481</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3298648</v>
+        <v>3300599</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3331239</v>
+        <v>3332099</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9815194190405333</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9762416092136781</v>
+        <v>0.9768191088141184</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9858870175708921</v>
+        <v>0.9861413766666732</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3176</v>
@@ -4261,19 +4261,19 @@
         <v>3369050</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3341466</v>
+        <v>3339709</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3391690</v>
+        <v>3392294</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9565174248277428</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.948685773943043</v>
+        <v>0.9481869664473789</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9629449636026979</v>
+        <v>0.9631164728167574</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6333</v>
@@ -4282,19 +4282,19 @@
         <v>6685532</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6654897</v>
+        <v>6655676</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6714637</v>
+        <v>6712605</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9687588793294427</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9643197136510422</v>
+        <v>0.9644327124931579</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9729763679956909</v>
+        <v>0.9726819110953216</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>62445</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>47687</v>
+        <v>46827</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>80278</v>
+        <v>78327</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01848058095946675</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01411298242910787</v>
+        <v>0.0138586233333268</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02375839078632188</v>
+        <v>0.02318089118588154</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>142</v>
@@ -4332,19 +4332,19 @@
         <v>153155</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>130515</v>
+        <v>129911</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>180739</v>
+        <v>182496</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04348257517225716</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03705503639730215</v>
+        <v>0.03688352718324269</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05131422605695739</v>
+        <v>0.05181303355262144</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>201</v>
@@ -4353,19 +4353,19 @@
         <v>215599</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>186494</v>
+        <v>188526</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>246234</v>
+        <v>245455</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03124112067055734</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02702363200430916</v>
+        <v>0.02731808890467847</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03568028634895784</v>
+        <v>0.03556728750684211</v>
       </c>
     </row>
     <row r="27">
